--- a/src/test/resources/case/Train.xlsx
+++ b/src/test/resources/case/Train.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="58">
   <si>
     <t>API</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,22 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>产品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ceo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>coo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>base2</t>
   </si>
   <si>
@@ -136,22 +120,6 @@
     <t>base9</t>
   </si>
   <si>
-    <t>微迅教育学习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MicrofastupEdu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企飞Edu-123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道地Edu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Case</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,10 +172,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>微迅学习教育</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>base5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -224,10 +188,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>壹迅Edu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>base9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -236,66 +196,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/expected/train_base1.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>base1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/expected/train_base2.json</t>
-  </si>
-  <si>
-    <t>/expected/train_base3.json</t>
-  </si>
-  <si>
-    <t>/expected/train_base4.json</t>
-  </si>
-  <si>
-    <t>/expected/train_base5.json</t>
-  </si>
-  <si>
-    <t>/expected/train_base6.json</t>
-  </si>
-  <si>
-    <t>/expected/train_base7.json</t>
-  </si>
-  <si>
-    <t>/expected/train_base8.json</t>
-  </si>
-  <si>
-    <t>/expected/train_base9.json</t>
-  </si>
-  <si>
-    <t>微迅教育</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微迅学习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>市场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微迅Edu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -329,6 +233,21 @@
   </si>
   <si>
     <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微迅Edu-123</t>
+  </si>
+  <si>
+    <t>微迅Edu-123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/expected/Train.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -696,7 +615,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -758,16 +677,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="26.5" style="1" bestFit="1" customWidth="1"/>
@@ -775,44 +694,47 @@
     <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>15</v>
@@ -821,21 +743,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>15</v>
@@ -844,64 +766,64 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>15</v>
@@ -913,90 +835,90 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="D10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>15</v>
@@ -1016,14 +938,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -1036,23 +958,23 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
@@ -1060,54 +982,55 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/case/Train.xlsx
+++ b/src/test/resources/case/Train.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -84,10 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/nchr/personresume/train</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2017-08-31T15:37:22+08:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -248,6 +244,10 @@
   </si>
   <si>
     <t>/expected/Train.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/personresume/train</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -665,7 +665,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -696,235 +696,235 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -938,7 +938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -958,74 +958,74 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/case/Train.xlsx
+++ b/src/test/resources/case/Train.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>API</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,24 +98,6 @@
     <t>base3</t>
   </si>
   <si>
-    <t>base4</t>
-  </si>
-  <si>
-    <t>base5</t>
-  </si>
-  <si>
-    <t>base6</t>
-  </si>
-  <si>
-    <t>base7</t>
-  </si>
-  <si>
-    <t>base8</t>
-  </si>
-  <si>
-    <t>base9</t>
-  </si>
-  <si>
     <t>Case</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,46 +130,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>base2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2017-08-31T15:37:22+08:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>base2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-08-31T15:37:22+08:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>base3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>base4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>base5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>base6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>base7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>base8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>base9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开发（Android、Ios...）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,30 +159,6 @@
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -614,7 +544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -665,7 +595,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -677,10 +607,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -696,45 +626,45 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>14</v>
@@ -745,19 +675,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>14</v>
@@ -768,162 +698,24 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -936,10 +728,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -958,10 +750,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -969,7 +761,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -977,55 +769,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
